--- a/说明文档/字典.xlsx
+++ b/说明文档/字典.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="253">
   <si>
     <t>LOCAL_VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -503,9 +503,6 @@
     </r>
   </si>
   <si>
-    <t>RH</t>
-  </si>
-  <si>
     <t>ABO</t>
   </si>
   <si>
@@ -855,6 +852,26 @@
   </si>
   <si>
     <t>自费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[性别]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不详</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1648,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B145" sqref="B145"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1673,15 +1690,15 @@
         <v>1</v>
       </c>
       <c r="D1" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="22" t="s">
         <v>3</v>
@@ -1698,7 +1715,7 @@
     </row>
     <row r="3" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="22">
         <v>-1</v>
@@ -1712,7 +1729,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="22">
         <v>-1</v>
@@ -1726,7 +1743,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" s="22">
         <v>-1</v>
@@ -1740,7 +1757,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B6" s="22">
         <v>-1</v>
@@ -1754,7 +1771,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" s="22">
         <v>-1</v>
@@ -1768,7 +1785,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B8" s="22">
         <v>-1</v>
@@ -1782,7 +1799,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="22">
         <v>-1</v>
@@ -1796,7 +1813,7 @@
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="8">
         <v>2</v>
@@ -1813,7 +1830,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B11" s="11">
         <v>1</v>
@@ -1827,7 +1844,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B12" s="11">
         <v>3</v>
@@ -1841,10 +1858,10 @@
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C13" s="27">
         <v>99</v>
@@ -1855,10 +1872,10 @@
     </row>
     <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C14" s="27">
         <v>99</v>
@@ -1869,7 +1886,7 @@
     </row>
     <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B15" s="11">
         <v>-1</v>
@@ -1883,7 +1900,7 @@
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B16" s="11">
         <v>5</v>
@@ -1895,9 +1912,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="8">
         <v>9</v>
@@ -1911,10 +1928,10 @@
     </row>
     <row r="18" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1</v>
+        <v>248</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="C18" s="30">
         <v>1</v>
@@ -1928,13 +1945,13 @@
     </row>
     <row r="19" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B19" s="11">
-        <v>2</v>
+        <v>248</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="C19" s="30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="25" t="s">
         <v>20</v>
@@ -1942,10 +1959,10 @@
     </row>
     <row r="20" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B20" s="11">
-        <v>3</v>
+        <v>248</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="C20" s="27">
         <v>3</v>
@@ -1956,10 +1973,10 @@
     </row>
     <row r="21" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B21" s="8">
-        <v>4</v>
+        <v>248</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="C21" s="28">
         <v>4</v>
@@ -1970,7 +1987,7 @@
     </row>
     <row r="22" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B22" s="11">
         <v>1</v>
@@ -1984,7 +2001,7 @@
     </row>
     <row r="23" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" s="11">
         <v>2</v>
@@ -1998,7 +2015,7 @@
     </row>
     <row r="24" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B24" s="11">
         <v>3</v>
@@ -2012,7 +2029,7 @@
     </row>
     <row r="25" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B25" s="8">
         <v>9</v>
@@ -2026,7 +2043,7 @@
     </row>
     <row r="26" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B26" s="11">
         <v>1</v>
@@ -2040,7 +2057,7 @@
     </row>
     <row r="27" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B27" s="11">
         <v>2</v>
@@ -2054,7 +2071,7 @@
     </row>
     <row r="28" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="11">
         <v>3</v>
@@ -2068,7 +2085,7 @@
     </row>
     <row r="29" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B29" s="8">
         <v>4</v>
@@ -2082,7 +2099,7 @@
     </row>
     <row r="30" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B30" s="11">
         <v>1</v>
@@ -2096,7 +2113,7 @@
     </row>
     <row r="31" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="11">
         <v>2</v>
@@ -2110,7 +2127,7 @@
     </row>
     <row r="32" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="11">
         <v>3</v>
@@ -2124,7 +2141,7 @@
     </row>
     <row r="33" spans="1:4" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B33" s="8">
         <v>9</v>
@@ -2138,7 +2155,7 @@
     </row>
     <row r="34" spans="1:4" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="28">
@@ -2150,7 +2167,7 @@
     </row>
     <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B35" s="11">
         <v>1</v>
@@ -2164,7 +2181,7 @@
     </row>
     <row r="36" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B36" s="11">
         <v>2</v>
@@ -2178,7 +2195,7 @@
     </row>
     <row r="37" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B37" s="11">
         <v>3</v>
@@ -2192,7 +2209,7 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B38" s="11">
         <v>4</v>
@@ -2206,7 +2223,7 @@
     </row>
     <row r="39" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="11">
         <v>5</v>
@@ -2220,7 +2237,7 @@
     </row>
     <row r="40" spans="1:4" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B40" s="8">
         <v>9</v>
@@ -2234,7 +2251,7 @@
     </row>
     <row r="41" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" s="11">
         <v>1</v>
@@ -2248,7 +2265,7 @@
     </row>
     <row r="42" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B42" s="11">
         <v>2</v>
@@ -2262,7 +2279,7 @@
     </row>
     <row r="43" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
@@ -2276,7 +2293,7 @@
     </row>
     <row r="44" spans="1:4" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B44" s="8">
         <v>9</v>
@@ -2290,7 +2307,7 @@
     </row>
     <row r="45" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B45" s="11">
         <v>0</v>
@@ -2304,10 +2321,10 @@
     </row>
     <row r="46" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C46" s="30">
         <v>2</v>
@@ -2318,24 +2335,24 @@
     </row>
     <row r="47" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C47" s="27">
         <v>3</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C48" s="28">
         <v>4</v>
@@ -2346,7 +2363,7 @@
     </row>
     <row r="49" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>46</v>
@@ -2363,7 +2380,7 @@
     </row>
     <row r="50" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B50" s="27" t="s">
         <v>48</v>
@@ -2380,7 +2397,7 @@
     </row>
     <row r="51" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B51" s="27" t="s">
         <v>50</v>
@@ -2397,7 +2414,7 @@
     </row>
     <row r="52" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B52" s="28" t="s">
         <v>18</v>
@@ -2414,7 +2431,7 @@
     </row>
     <row r="53" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A53" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B53" s="25" t="s">
         <v>39</v>
@@ -2431,7 +2448,7 @@
     </row>
     <row r="54" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A54" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B54" s="25" t="s">
         <v>40</v>
@@ -2445,7 +2462,7 @@
     </row>
     <row r="55" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A55" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B55" s="25" t="s">
         <v>41</v>
@@ -2459,7 +2476,7 @@
     </row>
     <row r="56" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A56" s="47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B56" s="26" t="s">
         <v>42</v>
@@ -2473,7 +2490,7 @@
     </row>
     <row r="57" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B57" s="27" t="s">
         <v>54</v>
@@ -2490,7 +2507,7 @@
     </row>
     <row r="58" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B58" s="27" t="s">
         <v>55</v>
@@ -2504,7 +2521,7 @@
     </row>
     <row r="59" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B59" s="30" t="s">
         <v>57</v>
@@ -2518,16 +2535,16 @@
     </row>
     <row r="60" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C60" s="30">
         <v>1</v>
       </c>
       <c r="D60" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>79</v>
@@ -2535,7 +2552,7 @@
     </row>
     <row r="61" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B61" s="11">
         <v>-1</v>
@@ -2549,10 +2566,10 @@
     </row>
     <row r="62" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C62" s="30">
         <v>12</v>
@@ -2563,10 +2580,10 @@
     </row>
     <row r="63" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C63" s="27">
         <v>13</v>
@@ -2577,10 +2594,10 @@
     </row>
     <row r="64" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C64" s="27">
         <v>2</v>
@@ -2591,10 +2608,10 @@
     </row>
     <row r="65" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C65" s="27">
         <v>9</v>
@@ -2605,10 +2622,10 @@
     </row>
     <row r="66" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C66" s="27">
         <v>22</v>
@@ -2619,10 +2636,10 @@
     </row>
     <row r="67" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C67" s="27">
         <v>3</v>
@@ -2633,10 +2650,10 @@
     </row>
     <row r="68" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C68" s="27">
         <v>9</v>
@@ -2647,10 +2664,10 @@
     </row>
     <row r="69" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C69" s="27">
         <v>9</v>
@@ -2661,10 +2678,10 @@
     </row>
     <row r="70" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C70" s="29">
         <v>9</v>
@@ -2675,10 +2692,10 @@
     </row>
     <row r="71" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C71" s="31">
         <v>9</v>
@@ -2689,7 +2706,7 @@
     </row>
     <row r="72" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B72" s="11">
         <v>-1</v>
@@ -2703,10 +2720,10 @@
     </row>
     <row r="73" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C73" s="32">
         <v>36</v>
@@ -2717,10 +2734,10 @@
     </row>
     <row r="74" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74" s="32">
         <v>4</v>
@@ -2731,7 +2748,7 @@
     </row>
     <row r="75" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B75" s="11">
         <v>-1</v>
@@ -2745,10 +2762,10 @@
     </row>
     <row r="76" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" s="33">
         <v>42</v>
@@ -2759,7 +2776,7 @@
     </row>
     <row r="77" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B77" s="11">
         <v>-1</v>
@@ -2773,7 +2790,7 @@
     </row>
     <row r="78" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B78" s="11">
         <v>-1</v>
@@ -2787,7 +2804,7 @@
     </row>
     <row r="79" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C79" s="32">
         <v>9</v>
@@ -2798,10 +2815,10 @@
     </row>
     <row r="80" spans="1:4" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C80" s="34">
         <v>9</v>
@@ -2812,7 +2829,7 @@
     </row>
     <row r="81" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B81" s="11">
         <v>1</v>
@@ -2821,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E81" s="5" t="s">
         <v>80</v>
@@ -2829,7 +2846,7 @@
     </row>
     <row r="82" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B82" s="11">
         <v>2</v>
@@ -2838,12 +2855,12 @@
         <v>2</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B83" s="11">
         <v>3</v>
@@ -2852,12 +2869,12 @@
         <v>3</v>
       </c>
       <c r="D83" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B84" s="11">
         <v>4</v>
@@ -2866,12 +2883,12 @@
         <v>4</v>
       </c>
       <c r="D84" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B85" s="16">
         <v>5</v>
@@ -2886,70 +2903,70 @@
     </row>
     <row r="86" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="18" t="s">
         <v>137</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>138</v>
       </c>
       <c r="C86" s="42">
         <v>1</v>
       </c>
       <c r="D86" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E86" s="17"/>
     </row>
     <row r="87" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C87" s="42">
         <v>2</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E87" s="17"/>
     </row>
     <row r="88" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C88" s="43">
         <v>3</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E88" s="17"/>
     </row>
     <row r="89" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C89" s="43">
         <v>4</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E89" s="17"/>
     </row>
     <row r="90" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C90" s="41">
         <v>5</v>
@@ -2961,7 +2978,7 @@
     </row>
     <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B91" s="11">
         <v>-1</v>
@@ -2978,10 +2995,10 @@
     </row>
     <row r="92" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C92" s="45">
         <v>1</v>
@@ -2992,10 +3009,10 @@
     </row>
     <row r="93" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C93" s="45">
         <v>2</v>
@@ -3006,7 +3023,7 @@
     </row>
     <row r="94" spans="1:5" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="46">
@@ -3018,7 +3035,7 @@
     </row>
     <row r="95" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>86</v>
@@ -3035,7 +3052,7 @@
     </row>
     <row r="96" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>87</v>
@@ -3049,7 +3066,7 @@
     </row>
     <row r="97" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B97" s="11">
         <v>-1</v>
@@ -3063,7 +3080,7 @@
     </row>
     <row r="98" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B98" s="11">
         <v>-1</v>
@@ -3077,7 +3094,7 @@
     </row>
     <row r="99" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A99" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B99" s="11">
         <v>-1</v>
@@ -3091,7 +3108,7 @@
     </row>
     <row r="100" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>91</v>
@@ -3105,7 +3122,7 @@
     </row>
     <row r="101" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>92</v>
@@ -3119,10 +3136,10 @@
     </row>
     <row r="102" spans="1:4" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C102" s="46">
         <v>90</v>
@@ -3133,7 +3150,7 @@
     </row>
     <row r="103" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B103" s="11">
         <v>-1</v>
@@ -3147,7 +3164,7 @@
     </row>
     <row r="104" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B104" s="11">
         <v>-1</v>
@@ -3161,7 +3178,7 @@
     </row>
     <row r="105" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105" s="11">
         <v>-1</v>
@@ -3175,7 +3192,7 @@
     </row>
     <row r="106" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B106" s="11">
         <v>-1</v>
@@ -3189,7 +3206,7 @@
     </row>
     <row r="107" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A107" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107" s="11">
         <v>-1</v>
@@ -3203,7 +3220,7 @@
     </row>
     <row r="108" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A108" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108" s="11">
         <v>-1</v>
@@ -3217,7 +3234,7 @@
     </row>
     <row r="109" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A109" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109" s="11">
         <v>-1</v>
@@ -3231,7 +3248,7 @@
     </row>
     <row r="110" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A110" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B110" s="11">
         <v>-1</v>
@@ -3245,7 +3262,7 @@
     </row>
     <row r="111" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A111" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B111" s="11">
         <v>-1</v>
@@ -3259,7 +3276,7 @@
     </row>
     <row r="112" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A112" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B112" s="11">
         <v>-1</v>
@@ -3273,7 +3290,7 @@
     </row>
     <row r="113" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A113" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B113" s="11">
         <v>-1</v>
@@ -3282,12 +3299,12 @@
         <v>105</v>
       </c>
       <c r="D113" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B114" s="11">
         <v>-1</v>
@@ -3301,7 +3318,7 @@
     </row>
     <row r="115" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A115" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B115" s="11">
         <v>-1</v>
@@ -3315,7 +3332,7 @@
     </row>
     <row r="116" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A116" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B116" s="11">
         <v>-1</v>
@@ -3329,7 +3346,7 @@
     </row>
     <row r="117" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A117" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B117" s="11">
         <v>-1</v>
@@ -3343,7 +3360,7 @@
     </row>
     <row r="118" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A118" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B118" s="11">
         <v>-1</v>
@@ -3357,7 +3374,7 @@
     </row>
     <row r="119" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A119" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B119" s="11">
         <v>-1</v>
@@ -3371,7 +3388,7 @@
     </row>
     <row r="120" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A120" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B120" s="11">
         <v>-1</v>
@@ -3385,7 +3402,7 @@
     </row>
     <row r="121" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A121" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B121" s="11">
         <v>-1</v>
@@ -3399,7 +3416,7 @@
     </row>
     <row r="122" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A122" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B122" s="11">
         <v>-1</v>
@@ -3413,7 +3430,7 @@
     </row>
     <row r="123" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A123" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B123" s="11">
         <v>-1</v>
@@ -3427,7 +3444,7 @@
     </row>
     <row r="124" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A124" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B124" s="11">
         <v>-1</v>
@@ -3441,7 +3458,7 @@
     </row>
     <row r="125" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A125" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B125" s="11">
         <v>-1</v>
@@ -3455,7 +3472,7 @@
     </row>
     <row r="126" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A126" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B126" s="11">
         <v>-1</v>
@@ -3469,7 +3486,7 @@
     </row>
     <row r="127" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A127" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B127" s="11">
         <v>-1</v>
@@ -3483,7 +3500,7 @@
     </row>
     <row r="128" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A128" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B128" s="11">
         <v>-1</v>
@@ -3497,7 +3514,7 @@
     </row>
     <row r="129" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A129" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B129" s="11">
         <v>-1</v>
@@ -3511,7 +3528,7 @@
     </row>
     <row r="130" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A130" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B130" s="11">
         <v>-1</v>
@@ -3525,7 +3542,7 @@
     </row>
     <row r="131" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A131" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B131" s="11">
         <v>-1</v>
@@ -3539,7 +3556,7 @@
     </row>
     <row r="132" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A132" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B132" s="11">
         <v>-1</v>
@@ -3553,7 +3570,7 @@
     </row>
     <row r="133" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A133" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B133" s="11">
         <v>-1</v>
@@ -3567,7 +3584,7 @@
     </row>
     <row r="134" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A134" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B134" s="11">
         <v>-1</v>
@@ -3581,7 +3598,7 @@
     </row>
     <row r="135" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A135" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B135" s="11">
         <v>-1</v>
@@ -3595,7 +3612,7 @@
     </row>
     <row r="136" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A136" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B136" s="11">
         <v>-1</v>
@@ -3609,7 +3626,7 @@
     </row>
     <row r="137" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A137" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B137" s="11">
         <v>-1</v>
@@ -3623,7 +3640,7 @@
     </row>
     <row r="138" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A138" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B138" s="11">
         <v>-1</v>
@@ -3637,7 +3654,7 @@
     </row>
     <row r="139" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A139" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B139" s="11">
         <v>-1</v>
@@ -3651,7 +3668,7 @@
     </row>
     <row r="140" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A140" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B140" s="11">
         <v>-1</v>
@@ -3665,7 +3682,7 @@
     </row>
     <row r="141" spans="1:4" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A141" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B141" s="11">
         <v>-1</v>
@@ -3679,808 +3696,808 @@
     </row>
     <row r="142" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A142" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" s="11" t="s">
         <v>150</v>
-      </c>
-      <c r="B142" s="11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A143" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C143" s="9">
         <v>1</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A144" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C144" s="10">
         <v>2</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A145" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C145" s="10">
         <v>3</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A146" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C146" s="10">
         <v>4</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A147" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C147" s="10">
         <v>5</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A148" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C148" s="10">
         <v>6</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A149" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C149" s="10">
         <v>7</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A150" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C150" s="10">
         <v>8</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A151" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C151" s="10">
         <v>9</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A152" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C152" s="10">
         <v>10</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A153" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C153" s="10">
         <v>11</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A154" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C154" s="10">
         <v>12</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A155" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C155" s="10">
         <v>13</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A156" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C156" s="10">
         <v>14</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A157" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C157" s="10">
         <v>15</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A158" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C158" s="10">
         <v>16</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A159" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C159" s="10">
         <v>17</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A160" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C160" s="10">
         <v>18</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A161" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C161" s="10">
         <v>19</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A162" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C162" s="10">
         <v>20</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A163" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C163" s="10">
         <v>21</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A164" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C164" s="10">
         <v>22</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A165" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C165" s="10">
         <v>23</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A166" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C166" s="10">
         <v>24</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A167" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C167" s="10">
         <v>25</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A168" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C168" s="10">
         <v>26</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A169" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C169" s="10">
         <v>27</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A170" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C170" s="10">
         <v>28</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A171" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C171" s="10">
         <v>29</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A172" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C172" s="9">
         <v>30</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A173" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B173" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C173" s="10">
         <v>31</v>
       </c>
       <c r="D173" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A174" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B174" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C174" s="10">
         <v>32</v>
       </c>
       <c r="D174" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A175" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C175" s="10">
         <v>33</v>
       </c>
       <c r="D175" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A176" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C176" s="10">
         <v>34</v>
       </c>
       <c r="D176" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A177" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C177" s="10">
         <v>35</v>
       </c>
       <c r="D177" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A178" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C178" s="10">
         <v>36</v>
       </c>
       <c r="D178" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A179" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C179" s="10">
         <v>37</v>
       </c>
       <c r="D179" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A180" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C180" s="10">
         <v>38</v>
       </c>
       <c r="D180" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A181" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C181" s="10">
         <v>39</v>
       </c>
       <c r="D181" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A182" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C182" s="10">
         <v>40</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A183" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C183" s="10">
         <v>41</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A184" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C184" s="10">
         <v>42</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A185" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C185" s="10">
         <v>43</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A186" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C186" s="10">
         <v>44</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A187" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C187" s="10">
         <v>45</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A188" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C188" s="10">
         <v>46</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A189" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C189" s="10">
         <v>47</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A190" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C190" s="10">
         <v>48</v>
       </c>
       <c r="D190" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A191" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C191" s="10">
         <v>49</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A192" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C192" s="10">
         <v>50</v>
       </c>
       <c r="D192" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A193" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C193" s="10">
         <v>51</v>
       </c>
       <c r="D193" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A194" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C194" s="10">
         <v>52</v>
       </c>
       <c r="D194" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A195" s="48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C195" s="10">
         <v>53</v>
       </c>
       <c r="D195" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A196" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C196" s="10">
         <v>54</v>
       </c>
       <c r="D196" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A197" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C197" s="10">
         <v>55</v>
       </c>
       <c r="D197" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A198" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C198" s="10">
         <v>56</v>
       </c>
       <c r="D198" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A199" s="48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C199" s="10">
         <v>57</v>
       </c>
       <c r="D199" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
